--- a/doc/神作手游版文档/NPC外形对应.xlsx
+++ b/doc/神作手游版文档/NPC外形对应.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,78 @@
   </si>
   <si>
     <t>刀兵2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴国老臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏国女臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛孔明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,6 +888,348 @@
         <a:xfrm>
           <a:off x="0" y="42052875"/>
           <a:ext cx="2266667" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28233</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>37690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="48367950"/>
+          <a:ext cx="2733333" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18709</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>123342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="51977925"/>
+          <a:ext cx="2723809" cy="3866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332995</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>151918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="56302275"/>
+          <a:ext cx="3038095" cy="3857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66329</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>18563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="60588525"/>
+          <a:ext cx="2771429" cy="3895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>399748</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>37583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="64998600"/>
+          <a:ext cx="2419048" cy="4133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123386</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>132933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="69837300"/>
+          <a:ext cx="3514286" cy="3333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>532995</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>75769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="73609200"/>
+          <a:ext cx="3238095" cy="3447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>37757</xdr:colOff>
+      <xdr:row>470</xdr:row>
+      <xdr:rowOff>142481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="77571600"/>
+          <a:ext cx="2742857" cy="3152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218795</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>94712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="81172050"/>
+          <a:ext cx="2238095" cy="4304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1114,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="A474" sqref="A474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1469,6 +1883,105 @@
         <v>41</v>
       </c>
     </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
+        <v>43</v>
+      </c>
+      <c r="B282" t="s">
+        <v>25</v>
+      </c>
+      <c r="C282" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" t="s">
+        <v>44</v>
+      </c>
+      <c r="B303" t="s">
+        <v>25</v>
+      </c>
+      <c r="C303" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" t="s">
+        <v>46</v>
+      </c>
+      <c r="B328" t="s">
+        <v>25</v>
+      </c>
+      <c r="C328" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A353" t="s">
+        <v>48</v>
+      </c>
+      <c r="B353" t="s">
+        <v>25</v>
+      </c>
+      <c r="C353" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A379" t="s">
+        <v>50</v>
+      </c>
+      <c r="B379" t="s">
+        <v>25</v>
+      </c>
+      <c r="C379" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A407" t="s">
+        <v>52</v>
+      </c>
+      <c r="B407" t="s">
+        <v>25</v>
+      </c>
+      <c r="C407" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
+        <v>55</v>
+      </c>
+      <c r="B429" t="s">
+        <v>25</v>
+      </c>
+      <c r="C429" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
+        <v>56</v>
+      </c>
+      <c r="B452" t="s">
+        <v>25</v>
+      </c>
+      <c r="C452" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A473" t="s">
+        <v>58</v>
+      </c>
+      <c r="B473" t="s">
+        <v>25</v>
+      </c>
+      <c r="C473" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
